--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1413,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1506,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1632,10 +1644,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1679,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1725,28 +1737,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1805,10 +1817,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1852,28 +1864,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1898,28 +1910,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2094,10 +2106,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2141,28 +2153,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2187,28 +2199,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2325,10 +2337,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2372,28 +2384,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2418,28 +2430,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2701,10 +2713,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2748,28 +2760,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2794,28 +2806,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2932,10 +2944,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2979,28 +2991,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3025,28 +3037,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3105,10 +3117,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3152,28 +3164,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3198,28 +3210,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3365,10 +3377,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3412,28 +3424,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3458,28 +3470,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3654,10 +3666,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3701,28 +3713,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3747,28 +3759,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3914,10 +3926,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3961,28 +3973,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4007,28 +4019,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4087,10 +4099,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4134,28 +4146,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4180,28 +4192,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4318,10 +4330,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4365,28 +4377,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4411,28 +4423,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4491,10 +4503,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4538,28 +4550,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4584,28 +4596,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4664,10 +4676,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4711,28 +4723,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4757,28 +4769,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4895,10 +4907,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4942,28 +4954,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4988,28 +5000,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5068,10 +5080,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5115,28 +5127,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5161,28 +5173,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5241,10 +5253,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5288,28 +5300,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5334,28 +5346,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5414,10 +5426,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5461,28 +5473,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5507,28 +5519,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5674,10 +5686,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5721,28 +5733,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5767,28 +5779,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5934,10 +5946,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5981,28 +5993,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6027,28 +6039,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6165,10 +6177,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6212,28 +6224,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6258,28 +6270,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6338,10 +6350,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6385,28 +6397,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6431,28 +6443,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6540,10 +6552,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6587,28 +6599,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6633,28 +6645,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6713,10 +6725,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6760,28 +6772,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6806,28 +6818,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6886,10 +6898,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6933,28 +6945,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6979,28 +6991,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7059,10 +7071,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7106,28 +7118,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7152,28 +7164,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7232,10 +7244,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7279,28 +7291,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7325,28 +7337,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7405,10 +7417,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7452,28 +7464,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7498,28 +7510,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7578,10 +7590,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7625,28 +7637,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7671,28 +7683,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7751,10 +7763,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7798,28 +7810,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7844,28 +7856,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7924,10 +7936,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7971,28 +7983,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8017,28 +8029,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8097,10 +8109,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8144,28 +8156,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8190,28 +8202,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8270,10 +8282,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8317,28 +8329,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8363,28 +8375,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8443,10 +8455,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8490,28 +8502,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8536,28 +8548,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8616,10 +8628,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8663,28 +8675,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8709,28 +8721,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8789,10 +8801,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8836,28 +8848,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8882,28 +8894,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8962,10 +8974,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9009,28 +9021,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9055,28 +9067,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9135,10 +9147,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="2" t="s">
+      <c r="J312" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9182,28 +9194,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="2">
+      <c r="A314" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="2">
+      <c r="C314" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9228,28 +9240,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="2">
+      <c r="C316" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="2">
+      <c r="D316" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="2">
+      <c r="I316" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9308,10 +9320,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9355,28 +9367,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9401,28 +9413,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9481,10 +9493,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9528,28 +9540,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
+      <c r="A326" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="2">
+      <c r="C326" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9574,28 +9586,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="2">
+      <c r="C328" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="2">
+      <c r="D328" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="2">
+      <c r="I328" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9654,10 +9666,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="2" t="s">
+      <c r="J330" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9701,28 +9713,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="2">
+      <c r="A332" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="2">
+      <c r="C332" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9747,28 +9759,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="2">
+      <c r="C334" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="2">
+      <c r="D334" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="2">
+      <c r="I334" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9827,10 +9839,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="2" t="s">
+      <c r="J336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
